--- a/results/ex6p2.xlsx
+++ b/results/ex6p2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="29">
   <si>
     <t>C:\Program Files\Java\jdk1.8.0_121\bin\java -Didea.launcher.port=7533 "-Didea.launcher.bin.path=C:\Program Files (x86)\JetBrains\IntelliJ IDEA 2016.3.4\bin" -Dfile.encoding=UTF-8 -classpath "C:\Program Files\Java\jdk1.8.0_121\jre\lib\charsets.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\deploy.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\access-bridge-64.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\cldrdata.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\dnsns.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\jaccess.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\jfxrt.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\localedata.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\nashorn.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\sunec.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\sunjce_provider.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\sunmscapi.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\sunpkcs11.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\zipfs.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\javaws.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\jce.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\jfr.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\jfxswt.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\jsse.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\management-agent.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\plugin.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\resources.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\rt.jar;D:\MCS\EC\tsp_group8\EC-Assignments\out\production\EC-Assignments;C:\Program Files (x86)\JetBrains\IntelliJ IDEA 2016.3.4\plugins\junit\lib\junit-jupiter-api-5.0.0-M3.jar;C:\Program Files (x86)\JetBrains\IntelliJ IDEA 2016.3.4\plugins\junit\lib\opentest4j-1.0.0-M1.jar;C:\Program Files (x86)\JetBrains\IntelliJ IDEA 2016.3.4\lib\idea_rt.jar" com.intellij.rt.execution.application.AppMain evo.benchmark.EvaluateEvo</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>pcb442</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1023,7 +1038,7 @@
   <dimension ref="A1:I272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243:E243"/>
+      <selection activeCell="F3" sqref="F3:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1069,21 +1084,21 @@
       <c r="E3">
         <v>437.73567511431901</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
         <f>MIN(E3:E32)</f>
         <v>431.37456361791698</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>AVERAGE(E3:E32)</f>
         <v>450.01007833192699</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f>STDEV(E3:E32)</f>
         <v>7.1606175890021095</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1101,21 +1116,21 @@
       <c r="E4">
         <v>449.18616528416698</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
         <f>MIN(E33:E62)</f>
         <v>554.62863029079097</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f>AVERAGE(E33:E62)</f>
         <v>585.8913857898076</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f>STDEV(E34:E63)</f>
         <v>22.337859236305285</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1133,21 +1148,21 @@
       <c r="E5">
         <v>447.242125623481</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
         <f>MIN(E63:E92)</f>
         <v>689.06576989570999</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f>AVERAGE(E63:E92)</f>
         <v>710.50290361557904</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f>STDEV(E63:E92)</f>
         <v>12.585553015089388</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1165,21 +1180,21 @@
       <c r="E6">
         <v>457.22074959504499</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
         <f>MIN(E93:E122)</f>
         <v>697.12773499655998</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>AVERAGE(E93:E122)</f>
         <v>719.67996769944148</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f>STDEV(E93:E122)</f>
         <v>17.262567810615398</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1197,21 +1212,21 @@
       <c r="E7">
         <v>452.40083044590602</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
         <f>MIN(E123:E152)</f>
         <v>22824.6159467053</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f>AVERAGE(E123:E152)</f>
         <v>23893.998046589611</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f>STDEV(E123:E152)</f>
         <v>756.24576308043322</v>
       </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1229,21 +1244,21 @@
       <c r="E8">
         <v>447.02040133635001</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
         <f>MIN(E153:E182)</f>
         <v>21833.039575322699</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f>AVERAGE(E153:E182)</f>
         <v>23588.062436975208</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f>STDEV(E153:E182)</f>
         <v>965.75100978004764</v>
       </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1261,21 +1276,21 @@
       <c r="E9">
         <v>461.01595048108101</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
         <f>MIN(E183:E212)</f>
         <v>22710.494387683801</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f>AVERAGE(E183:E212)</f>
         <v>24001.636110008592</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f>STDEV(E183:E212)</f>
         <v>665.38729737570964</v>
       </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1293,21 +1308,21 @@
       <c r="E10">
         <v>445.20475104012797</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
         <f>MIN(E213:E242)</f>
         <v>15500.3342064149</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f>AVERAGE(E213:E242)</f>
         <v>16242.65820950192</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f>STDEV(E213:E242)</f>
         <v>554.43198928449419</v>
       </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1325,20 +1340,20 @@
       <c r="E11">
         <v>456.47084617751699</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
         <f>MIN(E243:E272)</f>
         <v>170151.05331575099</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f>AVERAGE(E243:E272)</f>
         <v>177862.50888842213</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f>STDEV(E243:E272)</f>
         <v>3331.9979125784275</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">

--- a/results/ex6p2.xlsx
+++ b/results/ex6p2.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="ex6p2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="25">
   <si>
     <t>C:\Program Files\Java\jdk1.8.0_121\bin\java -Didea.launcher.port=7533 "-Didea.launcher.bin.path=C:\Program Files (x86)\JetBrains\IntelliJ IDEA 2016.3.4\bin" -Dfile.encoding=UTF-8 -classpath "C:\Program Files\Java\jdk1.8.0_121\jre\lib\charsets.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\deploy.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\access-bridge-64.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\cldrdata.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\dnsns.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\jaccess.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\jfxrt.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\localedata.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\nashorn.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\sunec.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\sunjce_provider.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\sunmscapi.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\sunpkcs11.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\ext\zipfs.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\javaws.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\jce.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\jfr.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\jfxswt.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\jsse.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\management-agent.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\plugin.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\resources.jar;C:\Program Files\Java\jdk1.8.0_121\jre\lib\rt.jar;D:\MCS\EC\tsp_group8\EC-Assignments\out\production\EC-Assignments;C:\Program Files (x86)\JetBrains\IntelliJ IDEA 2016.3.4\plugins\junit\lib\junit-jupiter-api-5.0.0-M3.jar;C:\Program Files (x86)\JetBrains\IntelliJ IDEA 2016.3.4\plugins\junit\lib\opentest4j-1.0.0-M1.jar;C:\Program Files (x86)\JetBrains\IntelliJ IDEA 2016.3.4\lib\idea_rt.jar" com.intellij.rt.execution.application.AppMain evo.benchmark.EvaluateEvo</t>
   </si>
@@ -102,21 +102,6 @@
   </si>
   <si>
     <t>pcb442</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5804,5 +5789,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>